--- a/Ejercicios tablas y gráficos dinámicos/Informe Ventas/Datos/ProdManager.xlsx
+++ b/Ejercicios tablas y gráficos dinámicos/Informe Ventas/Datos/ProdManager.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Centertic\Desktop\Formación en Tablas Dinámicas\Practica\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dataxbi-my.sharepoint.com/personal/dataxbi_dataxbi_com/Documents/Formación/ICONO TC/Curso Excel Nivel Medio/Excel-nivel-Intermedio-LogiRail/Ejercicios tablas y gráficos dinámicos/Informe Ventas/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D99417C3C0E92036AE7F41C1826625BE3AC7D512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,11 +227,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProdManager" displayName="ProdManager" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProdManager" displayName="ProdManager" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Category" dataDxfId="1"/>
-    <tableColumn id="2" name="Prod_Manager" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prod_Manager" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -487,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
